--- a/NLP/results/Charlie Brown__scoresheet.xlsx
+++ b/NLP/results/Charlie Brown__scoresheet.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>0/3</t>
+          <t>1/3</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-11 15:39:06</t>
+          <t>2025-11-18 12:29:46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -588,19 +588,19 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>3</v>
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>21.2%</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>Needs improvement. Review key concepts.</t>
+          <t>Fair. Some concepts missing.</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B13" s="9" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>The cell membrane is a selectively permeable barrier that regulates the passage of substances into and out of the cell, controlling what enters and exits to maintain cellular homeostasis.</t>
         </is>
       </c>
     </row>
